--- a/nobody/PURCHASE REQUESTS.xlsx
+++ b/nobody/PURCHASE REQUESTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\nobody\nobody\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA79B6A1-3668-461A-8B5A-D5C55B8A2222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC5C894-C67F-4E66-8186-4E5844C27F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{20426016-0106-4344-8C23-D4F7E557A014}"/>
   </bookViews>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -380,10 +380,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -398,6 +394,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -434,7 +433,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -472,7 +471,26 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -510,7 +528,325 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -541,346 +877,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -895,31 +891,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A6CC0EE-4548-4CF1-B1BC-D59B54E19353}" name="REQUESTS" displayName="REQUESTS" ref="A3:V37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7" headerRowBorderDxfId="24" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A6CC0EE-4548-4CF1-B1BC-D59B54E19353}" name="REQUESTS" displayName="REQUESTS" ref="A3:V37" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
   <autoFilter ref="A3:V37" xr:uid="{8A6CC0EE-4548-4CF1-B1BC-D59B54E19353}"/>
   <tableColumns count="22">
-    <tableColumn id="19" xr3:uid="{14DF3F6F-E031-4613-9B15-6F112FBDD1AD}" name="DATE" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{CC9F4AD4-3ADE-4F50-BC6D-7FBC9A077D3D}" name="REQUESTED BY" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{96EE4797-2B43-4B27-8764-89AE1309704F}" name="REQUESTED FOR" dataDxfId="0"/>
-    <tableColumn id="21" xr3:uid="{80468D9F-C8CF-4F3F-832C-CC9D91BC8068}" name="PR TYPE" dataDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{FE47E4F8-3E23-4680-BF7D-FBE5F4B40DEE}" name="PR NUMBER" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{A02CE091-D202-4D02-8E27-F6D386D5A3AA}" name="PR ITEM" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{B9AABAC0-41CC-446E-90D0-17744A5085D5}" name="ACC" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{5D5A7F16-6383-4C8E-B82D-26AD997F0EFB}" name="EXT" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{AAF98577-B2A4-48FD-AFA2-3BE17D0F6484}" name="DESCRIPTION" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{69D24506-B6A7-46D1-9184-8E5BA70A1E84}" name="QTY" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{3CAFA547-5196-4D70-B8EB-3E90C85687DE}" name="UNIT" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{CE8A6B1B-6BC2-4BCA-8CF4-98BEE48936C5}" name="PRICE" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{8175DB38-8698-4221-82DE-51CF226FE892}" name="CURRENCY" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{2E42371C-E2E7-4FB9-9914-7FDD9D06F01A}" name="TRACKING" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{3CD99AEB-2B4B-44E6-81F6-9D941EAE378C}" name="TYPE" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{6B884A7F-7BE3-4B77-AF4E-210899B1F481}" name="SERVICE CODE" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{A9291BCA-87A9-4F34-8205-E96374388FDC}" name="SERVICE DESCRIPTION" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{E740821D-A078-48BF-BB82-2C1FACEF83E8}" name="SQTY" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{AF4A4D80-1677-479D-A940-96BE08469FA6}" name="SUNIT" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{8E3B494C-94B2-406E-9B81-7DE33B448CE6}" name="SPRICE" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{3F583D07-199B-42EC-9220-CA77FB7E5EAD}" name="SCUR" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{A4BAEAFD-7C49-4B34-ACF8-B92446B03B6E}" name="WBS" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{14DF3F6F-E031-4613-9B15-6F112FBDD1AD}" name="DATE" dataDxfId="22"/>
+    <tableColumn id="20" xr3:uid="{CC9F4AD4-3ADE-4F50-BC6D-7FBC9A077D3D}" name="REQUESTED BY" dataDxfId="21"/>
+    <tableColumn id="22" xr3:uid="{96EE4797-2B43-4B27-8764-89AE1309704F}" name="REQUESTED FOR" dataDxfId="20"/>
+    <tableColumn id="21" xr3:uid="{80468D9F-C8CF-4F3F-832C-CC9D91BC8068}" name="PR TYPE" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{FE47E4F8-3E23-4680-BF7D-FBE5F4B40DEE}" name="PR NUMBER" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{A02CE091-D202-4D02-8E27-F6D386D5A3AA}" name="PR ITEM" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{B9AABAC0-41CC-446E-90D0-17744A5085D5}" name="ACC" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{5D5A7F16-6383-4C8E-B82D-26AD997F0EFB}" name="EXT" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{AAF98577-B2A4-48FD-AFA2-3BE17D0F6484}" name="DESCRIPTION" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{69D24506-B6A7-46D1-9184-8E5BA70A1E84}" name="QTY" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{3CAFA547-5196-4D70-B8EB-3E90C85687DE}" name="UNIT" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{CE8A6B1B-6BC2-4BCA-8CF4-98BEE48936C5}" name="PRICE" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{8175DB38-8698-4221-82DE-51CF226FE892}" name="CURRENCY" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{2E42371C-E2E7-4FB9-9914-7FDD9D06F01A}" name="TRACKING" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{3CD99AEB-2B4B-44E6-81F6-9D941EAE378C}" name="TYPE" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{6B884A7F-7BE3-4B77-AF4E-210899B1F481}" name="SERVICE CODE" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{A9291BCA-87A9-4F34-8205-E96374388FDC}" name="SERVICE DESCRIPTION" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{E740821D-A078-48BF-BB82-2C1FACEF83E8}" name="SQTY" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{AF4A4D80-1677-479D-A940-96BE08469FA6}" name="SUNIT" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{8E3B494C-94B2-406E-9B81-7DE33B448CE6}" name="SPRICE" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{3F583D07-199B-42EC-9220-CA77FB7E5EAD}" name="SCUR" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{A4BAEAFD-7C49-4B34-ACF8-B92446B03B6E}" name="WBS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -929,7 +925,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0627ED9-97E6-409B-A948-940F50C55F95}" name="SERVICES" displayName="SERVICES" ref="C4:D52" totalsRowShown="0">
   <autoFilter ref="C4:D52" xr:uid="{A0627ED9-97E6-409B-A948-940F50C55F95}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5A1F97F3-DC79-4E07-8092-F3A90362F137}" name="SCODE" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{5A1F97F3-DC79-4E07-8092-F3A90362F137}" name="SCODE" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{CA813268-E939-4C56-B9E2-12FFCF3BF8A5}" name="DESCRIPTION"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1256,7 +1252,7 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="V2" sqref="A2:V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1308,88 +1304,141 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3"/>
-      <c r="N2" s="2"/>
-      <c r="Q2" s="3"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="3"/>
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3">
+        <v>13</v>
+      </c>
+      <c r="O2" s="3">
+        <v>14</v>
+      </c>
+      <c r="P2" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>16</v>
+      </c>
+      <c r="R2" s="3">
+        <v>17</v>
+      </c>
+      <c r="S2" s="3">
+        <v>18</v>
+      </c>
+      <c r="T2" s="3">
+        <v>19</v>
+      </c>
+      <c r="U2" s="3">
+        <v>20</v>
+      </c>
+      <c r="V2" s="3">
+        <v>21</v>
+      </c>
       <c r="W2" s="3"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="W3" s="3"/>
@@ -1421,13 +1470,13 @@
       <c r="M4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="2">
         <v>20240052</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="2">
         <v>1000001652</v>
       </c>
       <c r="Q4" s="3" t="s">
@@ -1477,13 +1526,13 @@
       <c r="M5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="2">
         <v>20240052</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="2">
         <v>1000001680</v>
       </c>
       <c r="Q5" s="3" t="s">
@@ -2086,8 +2135,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2115,7 +2165,7 @@
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C5" s="6">
+      <c r="C5">
         <v>1000000438</v>
       </c>
       <c r="D5" t="s">
@@ -2123,7 +2173,7 @@
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C6" s="6">
+      <c r="C6">
         <v>1000001652</v>
       </c>
       <c r="D6" t="s">
@@ -2131,7 +2181,7 @@
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C7" s="6">
+      <c r="C7">
         <v>1000001653</v>
       </c>
       <c r="D7" t="s">
@@ -2139,7 +2189,7 @@
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C8" s="6">
+      <c r="C8">
         <v>1000001654</v>
       </c>
       <c r="D8" t="s">
@@ -2147,7 +2197,7 @@
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C9" s="6">
+      <c r="C9">
         <v>1000001655</v>
       </c>
       <c r="D9" t="s">
@@ -2155,7 +2205,7 @@
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C10" s="6">
+      <c r="C10">
         <v>1000001656</v>
       </c>
       <c r="D10" t="s">
@@ -2163,7 +2213,7 @@
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C11" s="6">
+      <c r="C11">
         <v>1000001657</v>
       </c>
       <c r="D11" t="s">
@@ -2171,7 +2221,7 @@
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C12" s="6">
+      <c r="C12">
         <v>1000001658</v>
       </c>
       <c r="D12" t="s">
@@ -2179,7 +2229,7 @@
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C13" s="6">
+      <c r="C13">
         <v>1000001659</v>
       </c>
       <c r="D13" t="s">
@@ -2187,7 +2237,7 @@
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C14" s="6">
+      <c r="C14">
         <v>1000001660</v>
       </c>
       <c r="D14" t="s">
@@ -2195,7 +2245,7 @@
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C15" s="6">
+      <c r="C15">
         <v>1000001661</v>
       </c>
       <c r="D15" t="s">
@@ -2203,7 +2253,7 @@
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C16" s="6">
+      <c r="C16">
         <v>1000001662</v>
       </c>
       <c r="D16" t="s">
@@ -2211,7 +2261,7 @@
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C17" s="6">
+      <c r="C17">
         <v>1000001663</v>
       </c>
       <c r="D17" t="s">
@@ -2219,7 +2269,7 @@
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C18" s="6">
+      <c r="C18">
         <v>1000001664</v>
       </c>
       <c r="D18" t="s">
@@ -2227,7 +2277,7 @@
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C19" s="6">
+      <c r="C19">
         <v>1000001665</v>
       </c>
       <c r="D19" t="s">
@@ -2235,7 +2285,7 @@
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C20" s="6">
+      <c r="C20">
         <v>1000001666</v>
       </c>
       <c r="D20" t="s">
@@ -2243,7 +2293,7 @@
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C21" s="6">
+      <c r="C21">
         <v>1000001667</v>
       </c>
       <c r="D21" t="s">
@@ -2251,7 +2301,7 @@
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C22" s="6">
+      <c r="C22">
         <v>1000001668</v>
       </c>
       <c r="D22" t="s">
@@ -2259,7 +2309,7 @@
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C23" s="6">
+      <c r="C23">
         <v>1000001669</v>
       </c>
       <c r="D23" t="s">
@@ -2267,7 +2317,7 @@
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C24" s="6">
+      <c r="C24">
         <v>1000001670</v>
       </c>
       <c r="D24" t="s">
@@ -2275,7 +2325,7 @@
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C25" s="6">
+      <c r="C25">
         <v>1000001671</v>
       </c>
       <c r="D25" t="s">
@@ -2283,7 +2333,7 @@
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C26" s="6">
+      <c r="C26">
         <v>1000001672</v>
       </c>
       <c r="D26" t="s">
@@ -2291,7 +2341,7 @@
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C27" s="6">
+      <c r="C27">
         <v>1000001673</v>
       </c>
       <c r="D27" t="s">
@@ -2299,7 +2349,7 @@
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C28" s="6">
+      <c r="C28">
         <v>1000001674</v>
       </c>
       <c r="D28" t="s">
@@ -2307,7 +2357,7 @@
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C29" s="6">
+      <c r="C29">
         <v>1000001675</v>
       </c>
       <c r="D29" t="s">
@@ -2315,7 +2365,7 @@
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C30" s="6">
+      <c r="C30">
         <v>1000001676</v>
       </c>
       <c r="D30" t="s">
@@ -2323,7 +2373,7 @@
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C31" s="6">
+      <c r="C31">
         <v>1000001677</v>
       </c>
       <c r="D31" t="s">
@@ -2331,7 +2381,7 @@
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C32" s="6">
+      <c r="C32">
         <v>1000001678</v>
       </c>
       <c r="D32" t="s">
@@ -2339,7 +2389,7 @@
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C33" s="6">
+      <c r="C33">
         <v>1000001679</v>
       </c>
       <c r="D33" t="s">
@@ -2347,7 +2397,7 @@
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C34" s="6">
+      <c r="C34">
         <v>1000001680</v>
       </c>
       <c r="D34" t="s">
@@ -2355,7 +2405,7 @@
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C35" s="6">
+      <c r="C35">
         <v>1000001681</v>
       </c>
       <c r="D35" t="s">
@@ -2363,7 +2413,7 @@
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C36" s="6">
+      <c r="C36">
         <v>1000001682</v>
       </c>
       <c r="D36" t="s">
@@ -2371,7 +2421,7 @@
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C37" s="6">
+      <c r="C37">
         <v>1000001683</v>
       </c>
       <c r="D37" t="s">
@@ -2379,7 +2429,7 @@
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C38" s="6">
+      <c r="C38">
         <v>1000001684</v>
       </c>
       <c r="D38" t="s">
@@ -2387,7 +2437,7 @@
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C39" s="6">
+      <c r="C39">
         <v>1000001685</v>
       </c>
       <c r="D39" t="s">
@@ -2395,7 +2445,7 @@
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C40" s="6">
+      <c r="C40">
         <v>1000001686</v>
       </c>
       <c r="D40" t="s">
@@ -2403,7 +2453,7 @@
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C41" s="6">
+      <c r="C41">
         <v>1000001687</v>
       </c>
       <c r="D41" t="s">
@@ -2411,7 +2461,7 @@
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C42" s="6">
+      <c r="C42">
         <v>1000001688</v>
       </c>
       <c r="D42" t="s">
@@ -2419,7 +2469,7 @@
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C43" s="6">
+      <c r="C43">
         <v>1000001689</v>
       </c>
       <c r="D43" t="s">
@@ -2427,7 +2477,7 @@
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C44" s="6">
+      <c r="C44">
         <v>1000001690</v>
       </c>
       <c r="D44" t="s">
@@ -2435,7 +2485,7 @@
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C45" s="6">
+      <c r="C45">
         <v>1000001691</v>
       </c>
       <c r="D45" t="s">
@@ -2443,7 +2493,7 @@
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C46" s="6">
+      <c r="C46">
         <v>1000001692</v>
       </c>
       <c r="D46" t="s">
@@ -2451,7 +2501,7 @@
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C47" s="6">
+      <c r="C47">
         <v>1000001693</v>
       </c>
       <c r="D47" t="s">
@@ -2459,7 +2509,7 @@
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C48" s="6">
+      <c r="C48">
         <v>1000001694</v>
       </c>
       <c r="D48" t="s">
@@ -2467,7 +2517,7 @@
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C49" s="6">
+      <c r="C49">
         <v>1000001695</v>
       </c>
       <c r="D49" t="s">
@@ -2475,7 +2525,7 @@
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C50" s="6">
+      <c r="C50">
         <v>1000001696</v>
       </c>
       <c r="D50" t="s">
@@ -2483,7 +2533,7 @@
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C51" s="6">
+      <c r="C51">
         <v>1000001697</v>
       </c>
       <c r="D51" t="s">
@@ -2491,7 +2541,7 @@
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C52" s="6">
+      <c r="C52">
         <v>1000002056</v>
       </c>
       <c r="D52" t="s">

--- a/nobody/PURCHASE REQUESTS.xlsx
+++ b/nobody/PURCHASE REQUESTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\nobody\nobody\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC5C894-C67F-4E66-8186-4E5844C27F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD556642-CA99-4BDA-9CD0-F78237D81AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{20426016-0106-4344-8C23-D4F7E557A014}"/>
+    <workbookView xWindow="930" yWindow="2250" windowWidth="14150" windowHeight="17240" xr2:uid="{20426016-0106-4344-8C23-D4F7E557A014}"/>
   </bookViews>
   <sheets>
     <sheet name="REQUESTS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>P</t>
   </si>
@@ -46,9 +46,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>LIFTING SPREADER TEST</t>
-  </si>
-  <si>
     <t>EA</t>
   </si>
   <si>
@@ -58,18 +55,6 @@
     <t>SERVICE</t>
   </si>
   <si>
-    <t>MWS LOAD TEST &amp; VISUAL INSPECTION</t>
-  </si>
-  <si>
-    <t>MWS-AE-0017.01.001</t>
-  </si>
-  <si>
-    <t>SUPPLY NBB SHACKLES</t>
-  </si>
-  <si>
-    <t>MWS PASSTHROUGH EXPENSES</t>
-  </si>
-  <si>
     <t>ACC</t>
   </si>
   <si>
@@ -281,6 +266,46 @@
   </si>
   <si>
     <t>REQUESTED FOR</t>
+  </si>
+  <si>
+    <t>FULL DESCRIPTION</t>
+  </si>
+  <si>
+    <t>RECERTIFICATION OF PCE</t>
+  </si>
+  <si>
+    <t>ADOF TO</t>
+  </si>
+  <si>
+    <t>MWS-AE-0020.01.005</t>
+  </si>
+  <si>
+    <t>FADHL</t>
+  </si>
+  <si>
+    <t>ADOF TOTAL</t>
+  </si>
+  <si>
+    <t>RECERTIFICATION OF PCE FOR ADNOC OFFHSORE TOTAL PROJECT
+7”X10K 8ft lubricator # 70 S 525.
+7”X10K 8ft lubricator # 70 S 502.
+Crossover 9 7/8”-4x2  5k Bowen pin X  6 1/8”-4x2  10K Elmar box # XOS 948.</t>
+  </si>
+  <si>
+    <t>ADOF CALL OUT</t>
+  </si>
+  <si>
+    <t>REPAIR OF DHT</t>
+  </si>
+  <si>
+    <t>ADOF CO</t>
+  </si>
+  <si>
+    <t>MWS-AE-0020.01.200</t>
+  </si>
+  <si>
+    <t>Refilling the 2.5” LIB 1piece.
+Resize the 2.739” female adaptor 2 no’s</t>
   </si>
 </sst>
 </file>
@@ -368,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -389,13 +414,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="28">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -718,7 +765,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -737,7 +784,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -756,7 +803,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -891,31 +938,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A6CC0EE-4548-4CF1-B1BC-D59B54E19353}" name="REQUESTS" displayName="REQUESTS" ref="A3:V37" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
-  <autoFilter ref="A3:V37" xr:uid="{8A6CC0EE-4548-4CF1-B1BC-D59B54E19353}"/>
-  <tableColumns count="22">
-    <tableColumn id="19" xr3:uid="{14DF3F6F-E031-4613-9B15-6F112FBDD1AD}" name="DATE" dataDxfId="22"/>
-    <tableColumn id="20" xr3:uid="{CC9F4AD4-3ADE-4F50-BC6D-7FBC9A077D3D}" name="REQUESTED BY" dataDxfId="21"/>
-    <tableColumn id="22" xr3:uid="{96EE4797-2B43-4B27-8764-89AE1309704F}" name="REQUESTED FOR" dataDxfId="20"/>
-    <tableColumn id="21" xr3:uid="{80468D9F-C8CF-4F3F-832C-CC9D91BC8068}" name="PR TYPE" dataDxfId="19"/>
-    <tableColumn id="1" xr3:uid="{FE47E4F8-3E23-4680-BF7D-FBE5F4B40DEE}" name="PR NUMBER" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{A02CE091-D202-4D02-8E27-F6D386D5A3AA}" name="PR ITEM" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{B9AABAC0-41CC-446E-90D0-17744A5085D5}" name="ACC" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{5D5A7F16-6383-4C8E-B82D-26AD997F0EFB}" name="EXT" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{AAF98577-B2A4-48FD-AFA2-3BE17D0F6484}" name="DESCRIPTION" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{69D24506-B6A7-46D1-9184-8E5BA70A1E84}" name="QTY" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{3CAFA547-5196-4D70-B8EB-3E90C85687DE}" name="UNIT" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{CE8A6B1B-6BC2-4BCA-8CF4-98BEE48936C5}" name="PRICE" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{8175DB38-8698-4221-82DE-51CF226FE892}" name="CURRENCY" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{2E42371C-E2E7-4FB9-9914-7FDD9D06F01A}" name="TRACKING" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{3CD99AEB-2B4B-44E6-81F6-9D941EAE378C}" name="TYPE" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{6B884A7F-7BE3-4B77-AF4E-210899B1F481}" name="SERVICE CODE" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{A9291BCA-87A9-4F34-8205-E96374388FDC}" name="SERVICE DESCRIPTION" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{E740821D-A078-48BF-BB82-2C1FACEF83E8}" name="SQTY" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{AF4A4D80-1677-479D-A940-96BE08469FA6}" name="SUNIT" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{8E3B494C-94B2-406E-9B81-7DE33B448CE6}" name="SPRICE" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{3F583D07-199B-42EC-9220-CA77FB7E5EAD}" name="SCUR" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{A4BAEAFD-7C49-4B34-ACF8-B92446B03B6E}" name="WBS" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A6CC0EE-4548-4CF1-B1BC-D59B54E19353}" name="REQUESTS" displayName="REQUESTS" ref="A2:W36" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
+  <autoFilter ref="A2:W36" xr:uid="{8A6CC0EE-4548-4CF1-B1BC-D59B54E19353}"/>
+  <tableColumns count="23">
+    <tableColumn id="19" xr3:uid="{14DF3F6F-E031-4613-9B15-6F112FBDD1AD}" name="DATE" dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{CC9F4AD4-3ADE-4F50-BC6D-7FBC9A077D3D}" name="REQUESTED BY" dataDxfId="22"/>
+    <tableColumn id="22" xr3:uid="{96EE4797-2B43-4B27-8764-89AE1309704F}" name="REQUESTED FOR" dataDxfId="21"/>
+    <tableColumn id="21" xr3:uid="{80468D9F-C8CF-4F3F-832C-CC9D91BC8068}" name="PR TYPE" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{FE47E4F8-3E23-4680-BF7D-FBE5F4B40DEE}" name="PR NUMBER" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{A02CE091-D202-4D02-8E27-F6D386D5A3AA}" name="PR ITEM" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{B9AABAC0-41CC-446E-90D0-17744A5085D5}" name="ACC" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{5D5A7F16-6383-4C8E-B82D-26AD997F0EFB}" name="EXT" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{AAF98577-B2A4-48FD-AFA2-3BE17D0F6484}" name="DESCRIPTION" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{69D24506-B6A7-46D1-9184-8E5BA70A1E84}" name="QTY" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{3CAFA547-5196-4D70-B8EB-3E90C85687DE}" name="UNIT" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{CE8A6B1B-6BC2-4BCA-8CF4-98BEE48936C5}" name="PRICE" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{8175DB38-8698-4221-82DE-51CF226FE892}" name="CURRENCY" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{2E42371C-E2E7-4FB9-9914-7FDD9D06F01A}" name="TRACKING" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{3CD99AEB-2B4B-44E6-81F6-9D941EAE378C}" name="TYPE" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{6B884A7F-7BE3-4B77-AF4E-210899B1F481}" name="SERVICE CODE" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{A9291BCA-87A9-4F34-8205-E96374388FDC}" name="SERVICE DESCRIPTION" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{E740821D-A078-48BF-BB82-2C1FACEF83E8}" name="SQTY" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{AF4A4D80-1677-479D-A940-96BE08469FA6}" name="SUNIT" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{8E3B494C-94B2-406E-9B81-7DE33B448CE6}" name="SPRICE" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{3F583D07-199B-42EC-9220-CA77FB7E5EAD}" name="SCUR" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{A4BAEAFD-7C49-4B34-ACF8-B92446B03B6E}" name="WBS" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{A462CF03-4ED0-4FF3-ABE6-5BF32411B1D8}" name="FULL DESCRIPTION" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1249,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DA0168-3595-4C7B-8E30-783673079531}">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="A2:V3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1260,14 +1308,14 @@
     <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="34.90625" style="4" customWidth="1"/>
     <col min="10" max="10" width="5.90625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="31.36328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.90625" style="3" bestFit="1" customWidth="1"/>
@@ -1279,7 +1327,7 @@
     <col min="20" max="20" width="7.08984375" style="2" customWidth="1"/>
     <col min="21" max="21" width="7.81640625" style="2" customWidth="1"/>
     <col min="22" max="22" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.1796875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="34.26953125" style="2" customWidth="1"/>
     <col min="24" max="24" width="18.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.7265625" style="3"/>
     <col min="26" max="16384" width="8.7265625" style="1"/>
@@ -1303,152 +1351,167 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3">
+    <row r="2" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="3">
-        <v>17</v>
-      </c>
-      <c r="S2" s="3">
-        <v>18</v>
-      </c>
-      <c r="T2" s="3">
-        <v>19</v>
-      </c>
-      <c r="U2" s="3">
-        <v>20</v>
-      </c>
-      <c r="V2" s="3">
-        <v>21</v>
-      </c>
-      <c r="W2" s="3"/>
+      <c r="W2" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1400066416</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="O3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1000001685</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="3"/>
+      <c r="W3" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1400066417</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
       <c r="G4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1456,48 +1519,50 @@
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="3">
-        <v>300</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="2">
-        <v>20240052</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="P4" s="2">
-        <v>1000001652</v>
+        <v>1000001666</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="R4" s="2">
         <v>1</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T4" s="3">
         <v>0.01</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="W4" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
@@ -1505,55 +1570,16 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="G5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2">
-        <v>4</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="3">
-        <v>420</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="2">
-        <v>20240052</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1000001680</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="2">
-        <v>4</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="W5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="N5" s="2"/>
+      <c r="Q5" s="3"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="3"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
@@ -1571,7 +1597,6 @@
       <c r="Q6" s="3"/>
       <c r="S6" s="2"/>
       <c r="T6" s="3"/>
-      <c r="W6" s="3"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
@@ -1589,7 +1614,6 @@
       <c r="Q7" s="3"/>
       <c r="S7" s="2"/>
       <c r="T7" s="3"/>
-      <c r="W7" s="3"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
@@ -1607,7 +1631,6 @@
       <c r="Q8" s="3"/>
       <c r="S8" s="2"/>
       <c r="T8" s="3"/>
-      <c r="W8" s="3"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
@@ -1625,7 +1648,6 @@
       <c r="Q9" s="3"/>
       <c r="S9" s="2"/>
       <c r="T9" s="3"/>
-      <c r="W9" s="3"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
@@ -1643,7 +1665,6 @@
       <c r="Q10" s="3"/>
       <c r="S10" s="2"/>
       <c r="T10" s="3"/>
-      <c r="W10" s="3"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
@@ -1661,7 +1682,6 @@
       <c r="Q11" s="3"/>
       <c r="S11" s="2"/>
       <c r="T11" s="3"/>
-      <c r="W11" s="3"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
@@ -1679,7 +1699,6 @@
       <c r="Q12" s="3"/>
       <c r="S12" s="2"/>
       <c r="T12" s="3"/>
-      <c r="W12" s="3"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
@@ -1697,7 +1716,6 @@
       <c r="Q13" s="3"/>
       <c r="S13" s="2"/>
       <c r="T13" s="3"/>
-      <c r="W13" s="3"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
@@ -1715,7 +1733,6 @@
       <c r="Q14" s="3"/>
       <c r="S14" s="2"/>
       <c r="T14" s="3"/>
-      <c r="W14" s="3"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
@@ -1733,7 +1750,6 @@
       <c r="Q15" s="3"/>
       <c r="S15" s="2"/>
       <c r="T15" s="3"/>
-      <c r="W15" s="3"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
@@ -1751,7 +1767,6 @@
       <c r="Q16" s="3"/>
       <c r="S16" s="2"/>
       <c r="T16" s="3"/>
-      <c r="W16" s="3"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
@@ -1769,7 +1784,6 @@
       <c r="Q17" s="3"/>
       <c r="S17" s="2"/>
       <c r="T17" s="3"/>
-      <c r="W17" s="3"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
@@ -1787,7 +1801,6 @@
       <c r="Q18" s="3"/>
       <c r="S18" s="2"/>
       <c r="T18" s="3"/>
-      <c r="W18" s="3"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
@@ -1805,7 +1818,6 @@
       <c r="Q19" s="3"/>
       <c r="S19" s="2"/>
       <c r="T19" s="3"/>
-      <c r="W19" s="3"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
@@ -1823,7 +1835,6 @@
       <c r="Q20" s="3"/>
       <c r="S20" s="2"/>
       <c r="T20" s="3"/>
-      <c r="W20" s="3"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
@@ -1841,7 +1852,6 @@
       <c r="Q21" s="3"/>
       <c r="S21" s="2"/>
       <c r="T21" s="3"/>
-      <c r="W21" s="3"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
@@ -1859,7 +1869,6 @@
       <c r="Q22" s="3"/>
       <c r="S22" s="2"/>
       <c r="T22" s="3"/>
-      <c r="W22" s="3"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
@@ -1877,7 +1886,6 @@
       <c r="Q23" s="3"/>
       <c r="S23" s="2"/>
       <c r="T23" s="3"/>
-      <c r="W23" s="3"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
@@ -1895,7 +1903,6 @@
       <c r="Q24" s="3"/>
       <c r="S24" s="2"/>
       <c r="T24" s="3"/>
-      <c r="W24" s="3"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
@@ -1913,7 +1920,6 @@
       <c r="Q25" s="3"/>
       <c r="S25" s="2"/>
       <c r="T25" s="3"/>
-      <c r="W25" s="3"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
@@ -1931,7 +1937,6 @@
       <c r="Q26" s="3"/>
       <c r="S26" s="2"/>
       <c r="T26" s="3"/>
-      <c r="W26" s="3"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
@@ -1949,7 +1954,6 @@
       <c r="Q27" s="3"/>
       <c r="S27" s="2"/>
       <c r="T27" s="3"/>
-      <c r="W27" s="3"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
@@ -1967,7 +1971,6 @@
       <c r="Q28" s="3"/>
       <c r="S28" s="2"/>
       <c r="T28" s="3"/>
-      <c r="W28" s="3"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
@@ -1985,7 +1988,6 @@
       <c r="Q29" s="3"/>
       <c r="S29" s="2"/>
       <c r="T29" s="3"/>
-      <c r="W29" s="3"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
@@ -2003,7 +2005,6 @@
       <c r="Q30" s="3"/>
       <c r="S30" s="2"/>
       <c r="T30" s="3"/>
-      <c r="W30" s="3"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
@@ -2021,7 +2022,6 @@
       <c r="Q31" s="3"/>
       <c r="S31" s="2"/>
       <c r="T31" s="3"/>
-      <c r="W31" s="3"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
@@ -2039,7 +2039,6 @@
       <c r="Q32" s="3"/>
       <c r="S32" s="2"/>
       <c r="T32" s="3"/>
-      <c r="W32" s="3"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
@@ -2057,7 +2056,6 @@
       <c r="Q33" s="3"/>
       <c r="S33" s="2"/>
       <c r="T33" s="3"/>
-      <c r="W33" s="3"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
@@ -2075,7 +2073,6 @@
       <c r="Q34" s="3"/>
       <c r="S34" s="2"/>
       <c r="T34" s="3"/>
-      <c r="W34" s="3"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
@@ -2093,7 +2090,6 @@
       <c r="Q35" s="3"/>
       <c r="S35" s="2"/>
       <c r="T35" s="3"/>
-      <c r="W35" s="3"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
@@ -2111,27 +2107,8 @@
       <c r="Q36" s="3"/>
       <c r="S36" s="2"/>
       <c r="T36" s="3"/>
-      <c r="W36" s="3"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
-    </row>
-    <row r="37" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="3"/>
-      <c r="N37" s="2"/>
-      <c r="Q37" s="3"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2147,7 +2124,7 @@
   <dimension ref="C4:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2158,10 +2135,10 @@
   <sheetData>
     <row r="4" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.35">
@@ -2169,7 +2146,7 @@
         <v>1000000438</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.35">
@@ -2177,7 +2154,7 @@
         <v>1000001652</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.35">
@@ -2185,7 +2162,7 @@
         <v>1000001653</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.35">
@@ -2193,7 +2170,7 @@
         <v>1000001654</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.35">
@@ -2201,7 +2178,7 @@
         <v>1000001655</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.35">
@@ -2209,7 +2186,7 @@
         <v>1000001656</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.35">
@@ -2217,7 +2194,7 @@
         <v>1000001657</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.35">
@@ -2225,7 +2202,7 @@
         <v>1000001658</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.35">
@@ -2233,7 +2210,7 @@
         <v>1000001659</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.35">
@@ -2241,7 +2218,7 @@
         <v>1000001660</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.35">
@@ -2249,7 +2226,7 @@
         <v>1000001661</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.35">
@@ -2257,7 +2234,7 @@
         <v>1000001662</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.35">
@@ -2265,7 +2242,7 @@
         <v>1000001663</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.35">
@@ -2273,7 +2250,7 @@
         <v>1000001664</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.35">
@@ -2281,7 +2258,7 @@
         <v>1000001665</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.35">
@@ -2289,7 +2266,7 @@
         <v>1000001666</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.35">
@@ -2297,7 +2274,7 @@
         <v>1000001667</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.35">
@@ -2305,7 +2282,7 @@
         <v>1000001668</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.35">
@@ -2313,7 +2290,7 @@
         <v>1000001669</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.35">
@@ -2321,7 +2298,7 @@
         <v>1000001670</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.35">
@@ -2329,7 +2306,7 @@
         <v>1000001671</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.35">
@@ -2337,7 +2314,7 @@
         <v>1000001672</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.35">
@@ -2345,7 +2322,7 @@
         <v>1000001673</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.35">
@@ -2353,7 +2330,7 @@
         <v>1000001674</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.35">
@@ -2361,7 +2338,7 @@
         <v>1000001675</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.35">
@@ -2369,7 +2346,7 @@
         <v>1000001676</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.35">
@@ -2377,7 +2354,7 @@
         <v>1000001677</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.35">
@@ -2385,7 +2362,7 @@
         <v>1000001678</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.35">
@@ -2393,7 +2370,7 @@
         <v>1000001679</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.35">
@@ -2401,7 +2378,7 @@
         <v>1000001680</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.35">
@@ -2409,7 +2386,7 @@
         <v>1000001681</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.35">
@@ -2417,7 +2394,7 @@
         <v>1000001682</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.35">
@@ -2425,7 +2402,7 @@
         <v>1000001683</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.35">
@@ -2433,7 +2410,7 @@
         <v>1000001684</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.35">
@@ -2441,7 +2418,7 @@
         <v>1000001685</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.35">
@@ -2449,7 +2426,7 @@
         <v>1000001686</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.35">
@@ -2457,7 +2434,7 @@
         <v>1000001687</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.35">
@@ -2465,7 +2442,7 @@
         <v>1000001688</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.35">
@@ -2473,7 +2450,7 @@
         <v>1000001689</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.35">
@@ -2481,7 +2458,7 @@
         <v>1000001690</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.35">
@@ -2489,7 +2466,7 @@
         <v>1000001691</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.35">
@@ -2497,7 +2474,7 @@
         <v>1000001692</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.35">
@@ -2505,7 +2482,7 @@
         <v>1000001693</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.35">
@@ -2513,7 +2490,7 @@
         <v>1000001694</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.35">
@@ -2521,7 +2498,7 @@
         <v>1000001695</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.35">
@@ -2529,7 +2506,7 @@
         <v>1000001696</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.35">
@@ -2537,7 +2514,7 @@
         <v>1000001697</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.35">
@@ -2545,7 +2522,7 @@
         <v>1000002056</v>
       </c>
       <c r="D52" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/nobody/PURCHASE REQUESTS.xlsx
+++ b/nobody/PURCHASE REQUESTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\nobody\nobody\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD556642-CA99-4BDA-9CD0-F78237D81AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8515457E-0673-4412-9DDA-998E39CFE47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="2250" windowWidth="14150" windowHeight="17240" xr2:uid="{20426016-0106-4344-8C23-D4F7E557A014}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{20426016-0106-4344-8C23-D4F7E557A014}"/>
   </bookViews>
   <sheets>
     <sheet name="REQUESTS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
   <si>
     <t>P</t>
   </si>
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DA0168-3595-4C7B-8E30-783673079531}">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1568,18 +1568,66 @@
     </row>
     <row r="5" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3"/>
-      <c r="N5" s="2"/>
-      <c r="Q5" s="3"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1000001666</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>

--- a/nobody/PURCHASE REQUESTS.xlsx
+++ b/nobody/PURCHASE REQUESTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\nobody\nobody\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8515457E-0673-4412-9DDA-998E39CFE47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F5813D-4056-43F4-9E55-3B5A1E8FB7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{20426016-0106-4344-8C23-D4F7E557A014}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{20426016-0106-4344-8C23-D4F7E557A014}"/>
   </bookViews>
   <sheets>
     <sheet name="REQUESTS" sheetId="1" r:id="rId1"/>
@@ -1300,40 +1300,40 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.90625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.90625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7265625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.26953125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="33.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.81640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.08984375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="7.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="33.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.77734375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="7.77734375" style="2" customWidth="1"/>
     <col min="22" max="22" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.26953125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="18.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.7265625" style="3"/>
-    <col min="26" max="16384" width="8.7265625" style="1"/>
+    <col min="23" max="23" width="34.21875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="18.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.77734375" style="3"/>
+    <col min="26" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1351,7 +1351,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>72</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>80</v>
@@ -1435,9 +1435,6 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2">
-        <v>1400066416</v>
-      </c>
       <c r="F3" s="2">
         <v>10</v>
       </c>
@@ -1495,7 +1492,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>80</v>
@@ -1506,9 +1503,6 @@
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2">
-        <v>1400066417</v>
-      </c>
       <c r="F4" s="2">
         <v>10</v>
       </c>
@@ -1566,7 +1560,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>80</v>
@@ -1631,7 +1625,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1648,7 +1642,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1665,7 +1659,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1682,7 +1676,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1699,7 +1693,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1716,7 +1710,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1733,7 +1727,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1750,7 +1744,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1767,7 +1761,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1784,7 +1778,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1801,7 +1795,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1818,7 +1812,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1835,7 +1829,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1852,7 +1846,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1869,7 +1863,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1886,7 +1880,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1903,7 +1897,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1920,7 +1914,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1937,7 +1931,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1954,7 +1948,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1971,7 +1965,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1988,7 +1982,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2005,7 +1999,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2022,7 +2016,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2039,7 +2033,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2056,7 +2050,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2073,7 +2067,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2090,7 +2084,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2107,7 +2101,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2124,7 +2118,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2141,7 +2135,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2175,13 +2169,13 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>71</v>
       </c>
@@ -2189,7 +2183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>1000000438</v>
       </c>
@@ -2197,7 +2191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>1000001652</v>
       </c>
@@ -2205,7 +2199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>1000001653</v>
       </c>
@@ -2213,7 +2207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>1000001654</v>
       </c>
@@ -2221,7 +2215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>1000001655</v>
       </c>
@@ -2229,7 +2223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>1000001656</v>
       </c>
@@ -2237,7 +2231,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>1000001657</v>
       </c>
@@ -2245,7 +2239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>1000001658</v>
       </c>
@@ -2253,7 +2247,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>1000001659</v>
       </c>
@@ -2261,7 +2255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>1000001660</v>
       </c>
@@ -2269,7 +2263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>1000001661</v>
       </c>
@@ -2277,7 +2271,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>1000001662</v>
       </c>
@@ -2285,7 +2279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>1000001663</v>
       </c>
@@ -2293,7 +2287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>1000001664</v>
       </c>
@@ -2301,7 +2295,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>1000001665</v>
       </c>
@@ -2309,7 +2303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>1000001666</v>
       </c>
@@ -2317,7 +2311,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>1000001667</v>
       </c>
@@ -2325,7 +2319,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>1000001668</v>
       </c>
@@ -2333,7 +2327,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>1000001669</v>
       </c>
@@ -2341,7 +2335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>1000001670</v>
       </c>
@@ -2349,7 +2343,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>1000001671</v>
       </c>
@@ -2357,7 +2351,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>1000001672</v>
       </c>
@@ -2365,7 +2359,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>1000001673</v>
       </c>
@@ -2373,7 +2367,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>1000001674</v>
       </c>
@@ -2381,7 +2375,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>1000001675</v>
       </c>
@@ -2389,7 +2383,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>1000001676</v>
       </c>
@@ -2397,7 +2391,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>1000001677</v>
       </c>
@@ -2405,7 +2399,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>1000001678</v>
       </c>
@@ -2413,7 +2407,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>1000001679</v>
       </c>
@@ -2421,7 +2415,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>1000001680</v>
       </c>
@@ -2429,7 +2423,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>1000001681</v>
       </c>
@@ -2437,7 +2431,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>1000001682</v>
       </c>
@@ -2445,7 +2439,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>1000001683</v>
       </c>
@@ -2453,7 +2447,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>1000001684</v>
       </c>
@@ -2461,7 +2455,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>1000001685</v>
       </c>
@@ -2469,7 +2463,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>1000001686</v>
       </c>
@@ -2477,7 +2471,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>1000001687</v>
       </c>
@@ -2485,7 +2479,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>1000001688</v>
       </c>
@@ -2493,7 +2487,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>1000001689</v>
       </c>
@@ -2501,7 +2495,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>1000001690</v>
       </c>
@@ -2509,7 +2503,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>1000001691</v>
       </c>
@@ -2517,7 +2511,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>1000001692</v>
       </c>
@@ -2525,7 +2519,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>1000001693</v>
       </c>
@@ -2533,7 +2527,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>1000001694</v>
       </c>
@@ -2541,7 +2535,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49">
         <v>1000001695</v>
       </c>
@@ -2549,7 +2543,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>1000001696</v>
       </c>
@@ -2557,7 +2551,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51">
         <v>1000001697</v>
       </c>
@@ -2565,7 +2559,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>1000002056</v>
       </c>
@@ -2589,7 +2583,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
